--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il25-Il17rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il25-Il17rb.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.937635</v>
+        <v>1.27812</v>
       </c>
       <c r="N2">
-        <v>5.812905</v>
+        <v>3.83436</v>
       </c>
       <c r="O2">
-        <v>0.3294807693844617</v>
+        <v>0.2125522080155258</v>
       </c>
       <c r="P2">
-        <v>0.3294807693844617</v>
+        <v>0.2125522080155258</v>
       </c>
       <c r="Q2">
-        <v>0.2495447822583333</v>
+        <v>0.1646069446</v>
       </c>
       <c r="R2">
-        <v>2.245903040325</v>
+        <v>1.4814625014</v>
       </c>
       <c r="S2">
-        <v>0.3294807693844617</v>
+        <v>0.2125522080155258</v>
       </c>
       <c r="T2">
-        <v>0.3294807693844617</v>
+        <v>0.2125522080155258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>8.483828000000001</v>
       </c>
       <c r="O3">
-        <v>0.4808711267026451</v>
+        <v>0.4702887506191235</v>
       </c>
       <c r="P3">
-        <v>0.4808711267026451</v>
+        <v>0.4702887506191235</v>
       </c>
       <c r="Q3">
         <v>0.3642060228022223</v>
@@ -632,10 +632,10 @@
         <v>3.277854205220001</v>
       </c>
       <c r="S3">
-        <v>0.4808711267026451</v>
+        <v>0.4702887506191235</v>
       </c>
       <c r="T3">
-        <v>0.4808711267026451</v>
+        <v>0.4702887506191235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.115296666666667</v>
+        <v>1.907142333333333</v>
       </c>
       <c r="N4">
-        <v>3.34589</v>
+        <v>5.721427</v>
       </c>
       <c r="O4">
-        <v>0.1896481039128932</v>
+        <v>0.3171590413653506</v>
       </c>
       <c r="P4">
-        <v>0.1896481039128932</v>
+        <v>0.3171590413653506</v>
       </c>
       <c r="Q4">
-        <v>0.1436371988722222</v>
+        <v>0.2456176825394445</v>
       </c>
       <c r="R4">
-        <v>1.29273478985</v>
+        <v>2.210559142855</v>
       </c>
       <c r="S4">
-        <v>0.1896481039128932</v>
+        <v>0.3171590413653506</v>
       </c>
       <c r="T4">
-        <v>0.1896481039128932</v>
+        <v>0.3171590413653506</v>
       </c>
     </row>
   </sheetData>
